--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF28F5A-25ED-43F0-B4EA-29FB2224378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6A598-9268-473D-8D0D-6E3EA562D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1500" windowWidth="21600" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="14565" yWindow="1155" windowWidth="15075" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Noodle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,134 @@
   </si>
   <si>
     <t>Garlic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Butter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenonion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beansprout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seaweed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coriander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vinegar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tofu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redbean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggplant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ginger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -353,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,13 +669,13 @@
         <v>7</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -565,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -582,16 +706,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -602,16 +726,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -619,19 +743,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -639,19 +763,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -659,19 +783,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -679,19 +803,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -699,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -719,19 +843,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -739,19 +863,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -759,19 +883,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,21 +903,656 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6A598-9268-473D-8D0D-6E3EA562D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5FE98F-065D-47D9-9C42-B5AFC1C06F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="1155" windowWidth="15075" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="10500" yWindow="1440" windowWidth="15075" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -909,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -929,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -949,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1069,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1129,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -1169,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1409,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5FE98F-065D-47D9-9C42-B5AFC1C06F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500EF50E-84B3-413D-AD31-BDB84241D605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1440" windowWidth="15075" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Prefabs/TestPrefabs/Item_1.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAR_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +259,13 @@
   </si>
   <si>
     <t>Ginger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Item_1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Item_1.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -663,19 +666,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -683,19 +686,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -703,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,19 +726,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -743,19 +746,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,19 +766,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -783,19 +786,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -803,19 +806,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,19 +826,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -843,19 +846,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -863,19 +866,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -883,19 +886,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -903,19 +906,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -923,19 +926,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -943,19 +946,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -963,19 +966,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -983,19 +986,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1003,19 +1006,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1023,19 +1026,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1043,19 +1046,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1063,19 +1066,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,19 +1086,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1103,19 +1106,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1123,19 +1126,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1143,19 +1146,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,19 +1166,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,19 +1186,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1203,19 +1206,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1223,19 +1226,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,19 +1246,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1263,19 +1266,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,19 +1286,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1303,19 +1306,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,19 +1326,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,19 +1346,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,19 +1366,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1383,19 +1386,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,19 +1406,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1423,19 +1426,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1443,19 +1446,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1463,19 +1466,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1483,19 +1486,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,19 +1506,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1523,19 +1526,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500EF50E-84B3-413D-AD31-BDB84241D605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C0F688-C46E-45B6-9208-8F67BCEBEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="5175" yWindow="1170" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,14 @@
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/Item/Item_1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coconut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1535,14 +1543,52 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="48" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C0F688-C46E-45B6-9208-8F67BCEBEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816CD221-328B-4001-867B-E19FFF14A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1170" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="4830" yWindow="825" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816CD221-328B-4001-867B-E19FFF14A978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234807A2-90CA-4D35-B19F-7240199DA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="825" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -860,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>56</v>
@@ -1080,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>56</v>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234807A2-90CA-4D35-B19F-7240199DA08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61803A11-CA69-4E45-BC3A-24B34C916EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="825" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="9135" yWindow="1080" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strawberrie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pepper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동속도 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 거리 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Garlic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +258,182 @@
   </si>
   <si>
     <t>Coconut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 12% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 3% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 속도 3% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 거리 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서빙 속도 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 속도 3% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리 속도 12% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 속도 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 이동 속도 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서빙 속도 3% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 거리 3% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 3% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 속도 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 쿨타임 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리 속도 5% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 속도 8% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 거리 8% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 8% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 쿨타임 8% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 속도 8% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리 속도 8% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서빙 속도 8% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 8% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 이동 속도 8% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30% 확률로 돌진 쿨타임 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 7% 증가
+돌진 속도 7% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20% 확률로 포만감 2배인 음식 발사(면류 음식 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 8% 증가
+손님의 이동 속도 8% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 속도 12% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리 속도 10% 증가
+포만감 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 이동 속도 12% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격 거리 12% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 쿨타임 12% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5% 확률로 공격 회피
+이동 속도 15% 감소
+돌진 쿨타임 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 시 부딪친 손님의 만족도 증가
+돌진 쿨타임 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 12% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 10% 감소
+손님의 이동 속도 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손님의 공격을 맞은 후 무적 시간 0.6초 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서빙 속도 12% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 15% 감소
+손님의 공격 속도 10% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,9 +480,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,15 +801,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="15.625" customWidth="1"/>
+    <col min="1" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="79" customWidth="1"/>
+    <col min="7" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -671,47 +836,47 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -720,138 +885,138 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -860,658 +1025,658 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>81</v>
-      </c>
-      <c r="E43" t="s">
-        <v>56</v>
-      </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -1520,18 +1685,18 @@
         <v>9</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
@@ -1540,55 +1705,17 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1600,8 +1727,6 @@
     <row r="56" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61803A11-CA69-4E45-BC3A-24B34C916EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BC6E9-6AFB-4B37-AC37-D55985453E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="1080" windowWidth="22095" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="135" yWindow="210" windowWidth="9705" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,7 +996,7 @@
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="30" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="32" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="35" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="36" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="37" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="38" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="39" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="41" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="42" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="43" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="44" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="45" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BC6E9-6AFB-4B37-AC37-D55985453E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BDB28-E38A-4709-B6BA-801C9CD93AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="210" windowWidth="9705" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="60" yWindow="330" windowWidth="9690" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -804,7 +804,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>52</v>
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>52</v>
@@ -925,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>52</v>
@@ -945,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
@@ -985,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
@@ -1005,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>52</v>
@@ -1065,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>52</v>
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
@@ -1105,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>52</v>
@@ -1145,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>52</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>52</v>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -1225,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>52</v>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>52</v>
@@ -1285,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>52</v>
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
         <v>52</v>
@@ -1365,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
@@ -1385,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
         <v>52</v>
@@ -1425,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
         <v>52</v>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>52</v>
@@ -1465,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
         <v>52</v>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
         <v>52</v>
@@ -1505,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>52</v>
@@ -1525,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
         <v>52</v>
@@ -1545,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
         <v>52</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
         <v>52</v>
@@ -1585,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
         <v>52</v>
@@ -1605,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
         <v>52</v>
@@ -1625,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="D41">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>52</v>
@@ -1645,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
         <v>52</v>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="D43">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
         <v>53</v>
@@ -1685,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
         <v>52</v>
@@ -1705,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>52</v>

--- a/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/IngredientDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42BDB28-E38A-4709-B6BA-801C9CD93AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371544FB-48A1-439B-99B8-806D6B669C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="330" windowWidth="9690" windowHeight="13395" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22290" windowHeight="14685" xr2:uid="{EAC46937-06B9-4F5A-AE58-D1BFB26159AE}"/>
   </bookViews>
   <sheets>
     <sheet name="IngredientList" sheetId="1" r:id="rId1"/>
@@ -803,13 +803,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E90F63E-F7DA-48CE-92EC-3C854843401B}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.625" customWidth="1"/>
+    <col min="1" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
     <col min="6" max="6" width="79" customWidth="1"/>
     <col min="7" max="13" width="15.625" customWidth="1"/>
   </cols>
